--- a/Data/NE Test/DPV Analysis/Analysis Files/APBA 20 Seg 100 uM DA SER WASH - 10 min.xlsx
+++ b/Data/NE Test/DPV Analysis/Analysis Files/APBA 20 Seg 100 uM DA SER WASH - 10 min.xlsx
@@ -480,10 +480,10 @@
         <v>0.004</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>66.52309523809535</v>
+        <v>66.52309523809532</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>66.52309523809535</v>
+        <v>66.52309523809532</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -501,20 +501,20 @@
         <v>0.008</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>65.82357142857148</v>
+        <v>65.82357142857146</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>65.79518883415446</v>
+        <v>65.79518883415444</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.02838259441702462</v>
+        <v>0.02838259441701041</v>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>0.348</v>
+        <v>0.176</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.580708994708999</v>
+        <v>0.1672619047619008</v>
       </c>
     </row>
     <row r="4">
@@ -522,17 +522,21 @@
         <v>0.012</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>65.12500000000004</v>
+        <v>65.12500000000001</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>65.06728243021357</v>
+        <v>65.06728243021355</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.05771756978647602</v>
-      </c>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
+        <v>0.05771756978646181</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>2.580708994708999</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -542,10 +546,10 @@
         <v>64.43238095238098</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>64.33937602627267</v>
+        <v>64.33937602627266</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.09300492610830702</v>
+        <v>0.09300492610832123</v>
       </c>
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
@@ -556,13 +560,13 @@
         <v>0.02</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>63.74809523809527</v>
+        <v>63.74809523809528</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>63.61146962233179</v>
+        <v>63.61146962233178</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.1366256157634851</v>
+        <v>0.1366256157635064</v>
       </c>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
@@ -576,10 +580,10 @@
         <v>63.09428571428576</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>62.8835632183909</v>
+        <v>62.88356321839088</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.2107224958948635</v>
+        <v>0.2107224958948777</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
@@ -590,13 +594,13 @@
         <v>0.028</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>62.45904761904766</v>
+        <v>62.45904761904765</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>62.15565681445001</v>
+        <v>62.15565681445</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.3033908045976474</v>
+        <v>0.3033908045976546</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -610,10 +614,10 @@
         <v>61.83476190476195</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>61.42775041050912</v>
+        <v>61.42775041050911</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.4070114942528278</v>
+        <v>0.407011494252842</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -627,10 +631,10 @@
         <v>61.21142857142861</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>60.69984400656823</v>
+        <v>60.69984400656822</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.5115845648603852</v>
+        <v>0.5115845648603923</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -644,10 +648,10 @@
         <v>60.57952380952385</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>59.97193760262734</v>
+        <v>59.97193760262733</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.6075862068965137</v>
+        <v>0.6075862068965208</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -675,13 +679,13 @@
         <v>0.048</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>59.27000000000004</v>
+        <v>59.27000000000005</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>58.51612479474556</v>
+        <v>58.51612479474555</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.7538752052544808</v>
+        <v>0.753875205254495</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -712,10 +716,10 @@
         <v>57.89571428571433</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>57.06031198686377</v>
+        <v>57.06031198686378</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.8354022988505534</v>
+        <v>0.8354022988505463</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -749,7 +753,7 @@
         <v>55.604499178982</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.8469293924466186</v>
+        <v>0.8469293924466044</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -763,10 +767,10 @@
         <v>55.70571428571432</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>54.8765927750411</v>
+        <v>54.87659277504111</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.8291215106732182</v>
+        <v>0.829121510673211</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -780,10 +784,10 @@
         <v>54.93571428571432</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>54.14868637110021</v>
+        <v>54.14868637110023</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.7870279146141073</v>
+        <v>0.787027914614093</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -797,10 +801,10 @@
         <v>54.16714285714289</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>53.42077996715932</v>
+        <v>53.42077996715933</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.7463628899835726</v>
+        <v>0.7463628899835584</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -814,10 +818,10 @@
         <v>53.37523809523813</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>52.69287356321843</v>
+        <v>52.69287356321845</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.6823645320197045</v>
+        <v>0.6823645320196832</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -831,10 +835,10 @@
         <v>52.56904761904765</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>51.96496715927753</v>
+        <v>51.96496715927756</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.6040804597701168</v>
+        <v>0.6040804597700955</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -848,10 +852,10 @@
         <v>51.76000000000003</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>51.23706075533665</v>
+        <v>51.23706075533667</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.5229392446633838</v>
+        <v>0.5229392446633625</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -865,10 +869,10 @@
         <v>50.94476190476193</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>50.50915435139576</v>
+        <v>50.50915435139578</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.4356075533661752</v>
+        <v>0.4356075533661539</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -882,10 +886,10 @@
         <v>50.12380952380956</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>49.78124794745487</v>
+        <v>49.78124794745489</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.342561576354683</v>
+        <v>0.3425615763546617</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -899,10 +903,10 @@
         <v>49.30809523809526</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>49.05334154351398</v>
+        <v>49.05334154351401</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.2547536945812823</v>
+        <v>0.2547536945812539</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -916,10 +920,10 @@
         <v>48.49190476190479</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>48.32543513957309</v>
+        <v>48.32543513957312</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.1664696223317037</v>
+        <v>0.1664696223316753</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -933,10 +937,10 @@
         <v>47.68523809523812</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>47.5975287356322</v>
+        <v>47.59752873563222</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.08770935960592396</v>
+        <v>0.08770935960589554</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -950,10 +954,10 @@
         <v>46.90095238095241</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>46.8696223316913</v>
+        <v>46.86962233169134</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.03133004926110772</v>
+        <v>0.03133004926107219</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -967,10 +971,10 @@
         <v>46.14285714285717</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>46.14171592775041</v>
+        <v>46.14171592775045</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.001141215106756022</v>
+        <v>0.001141215106713389</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -984,10 +988,10 @@
         <v>45.41380952380956</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45.41380952380953</v>
+        <v>45.41380952380956</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -1083,10 +1087,10 @@
         <v>0.144</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>41.80285714285717</v>
+        <v>41.80285714285718</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>41.80285714285717</v>
+        <v>41.80285714285718</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>0</v>
@@ -1117,10 +1121,10 @@
         <v>0.152</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>40.91238095238098</v>
+        <v>40.91238095238099</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>40.91238095238098</v>
+        <v>40.91238095238099</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>0</v>
@@ -1188,10 +1192,10 @@
         <v>39.63571428571431</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>39.63571428571431</v>
+        <v>39.54694444444446</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0</v>
+        <v>0.08876984126985121</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1202,13 +1206,13 @@
         <v>0.172</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>39.42476190476192</v>
+        <v>39.42476190476193</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>39.42476190476192</v>
+        <v>39.27341269841272</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>0</v>
+        <v>0.1513492063492095</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1222,10 +1226,10 @@
         <v>39.16714285714288</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>39.16714285714288</v>
+        <v>38.99988095238098</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>0</v>
+        <v>0.1672619047619008</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1239,10 +1243,10 @@
         <v>38.85857142857145</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>38.85857142857145</v>
+        <v>38.72634920634923</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>0</v>
+        <v>0.1322222222222251</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1256,10 +1260,10 @@
         <v>38.53000000000003</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>38.53000000000003</v>
+        <v>38.45281746031748</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>0</v>
+        <v>0.07718253968254629</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1273,10 +1277,10 @@
         <v>38.13952380952384</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>38.13952380952384</v>
+        <v>38.17928571428574</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>0</v>
+        <v>-0.03976190476190311</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1290,10 +1294,10 @@
         <v>37.91761904761907</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>37.91761904761907</v>
+        <v>37.90575396825399</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>0</v>
+        <v>0.01186507936508008</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1307,10 +1311,10 @@
         <v>37.6561904761905</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>37.6561904761905</v>
+        <v>37.63222222222225</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>0</v>
+        <v>0.02396825396825619</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1321,13 +1325,13 @@
         <v>0.2</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>37.38142857142859</v>
+        <v>37.3814285714286</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>37.38142857142859</v>
+        <v>37.3586904761905</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>0</v>
+        <v>0.02273809523809689</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1341,10 +1345,10 @@
         <v>37.10666666666669</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>37.10666666666669</v>
+        <v>37.08515873015875</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>0</v>
+        <v>0.02150793650793759</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1358,10 +1362,10 @@
         <v>36.82523809523812</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>36.82523809523812</v>
+        <v>36.81162698412701</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>0</v>
+        <v>0.01361111111111057</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1593,10 +1597,10 @@
         <v>0.264</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>33.78857142857145</v>
+        <v>33.78857142857146</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>33.78857142857145</v>
+        <v>33.78857142857146</v>
       </c>
       <c r="D67" s="2" t="n">
         <v>0</v>
@@ -1630,10 +1634,10 @@
         <v>33.69428571428574</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>33.69428571428573</v>
+        <v>33.69428571428574</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>7.105427357601002e-15</v>
+        <v>0</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1650,7 +1654,7 @@
         <v>33.66129100529103</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>0.01061375661375763</v>
+        <v>0.01061375661375052</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1684,7 +1688,7 @@
         <v>33.59530158730161</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>0.06517460317460433</v>
+        <v>0.06517460317459722</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1698,10 +1702,10 @@
         <v>33.69761904761907</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>33.5623068783069</v>
+        <v>33.56230687830691</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>0.1353121693121722</v>
+        <v>0.1353121693121651</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1749,10 +1753,10 @@
         <v>33.97952380952383</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>33.46332275132277</v>
+        <v>33.46332275132278</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>0.5162010582010623</v>
+        <v>0.5162010582010552</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1800,10 +1804,10 @@
         <v>34.4709523809524</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>33.36433862433864</v>
+        <v>33.36433862433865</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>1.106613756613761</v>
+        <v>1.106613756613754</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1854,7 +1858,7 @@
         <v>33.26535449735452</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>1.794645502645508</v>
+        <v>1.794645502645501</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1868,10 +1872,10 @@
         <v>35.23761904761907</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>33.23235978835981</v>
+        <v>33.23235978835982</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>2.005259259259262</v>
+        <v>2.005259259259255</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1919,10 +1923,10 @@
         <v>35.60761904761907</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>33.13337566137568</v>
+        <v>33.13337566137569</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>2.474243386243387</v>
+        <v>2.47424338624338</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1970,10 +1974,10 @@
         <v>35.59761904761907</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>33.03439153439155</v>
+        <v>33.03439153439156</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>2.563227513227517</v>
+        <v>2.56322751322751</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -2001,13 +2005,13 @@
         <v>0.36</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>35.38619047619049</v>
+        <v>35.3861904761905</v>
       </c>
       <c r="C91" s="2" t="n">
         <v>32.96840211640214</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>2.417788359788354</v>
+        <v>2.417788359788361</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2018,10 +2022,10 @@
         <v>0.364</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>35.23761904761906</v>
+        <v>35.23761904761907</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>32.93540740740742</v>
+        <v>32.93540740740743</v>
       </c>
       <c r="D92" s="2" t="n">
         <v>2.302211640211638</v>
@@ -2205,13 +2209,13 @@
         <v>0.408</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>33.35523809523811</v>
+        <v>33.35523809523812</v>
       </c>
       <c r="C103" s="2" t="n">
         <v>32.57246560846563</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>0.7827724867724868</v>
+        <v>0.7827724867724939</v>
       </c>
       <c r="E103" s="2" t="n"/>
       <c r="F103" s="2" t="n"/>
@@ -2245,7 +2249,7 @@
         <v>32.50647619047621</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>0.6339999999999932</v>
+        <v>0.6340000000000003</v>
       </c>
       <c r="E105" s="2" t="n"/>
       <c r="F105" s="2" t="n"/>
@@ -2273,13 +2277,13 @@
         <v>0.424</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>32.86857142857144</v>
+        <v>32.86857142857145</v>
       </c>
       <c r="C107" s="2" t="n">
         <v>32.44048677248679</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>0.4280846560846499</v>
+        <v>0.428084656084657</v>
       </c>
       <c r="E107" s="2" t="n"/>
       <c r="F107" s="2" t="n"/>
@@ -2310,10 +2314,10 @@
         <v>32.66523809523812</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>32.37449735449738</v>
+        <v>32.37449735449737</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>0.2907407407407376</v>
+        <v>0.2907407407407447</v>
       </c>
       <c r="E109" s="2" t="n"/>
       <c r="F109" s="2" t="n"/>
@@ -2361,10 +2365,10 @@
         <v>32.34428571428574</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>32.27551322751325</v>
+        <v>32.27551322751324</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>0.06877248677248815</v>
+        <v>0.06877248677249526</v>
       </c>
       <c r="E112" s="2" t="n"/>
       <c r="F112" s="2" t="n"/>
@@ -2477,10 +2481,10 @@
         <v>0.472</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>32.28476190476192</v>
+        <v>32.28476190476193</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>32.28476190476192</v>
+        <v>32.28476190476193</v>
       </c>
       <c r="D119" s="2" t="n">
         <v>0</v>
@@ -2619,7 +2623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2653,9 +2657,17 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0.1672619047619008</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>0.348</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B4" s="2" t="n">
         <v>2.580708994708999</v>
       </c>
     </row>
